--- a/prompt_language/utils/tool_factory/auto_promptor/datasets_pool/user_search_test.xlsx
+++ b/prompt_language/utils/tool_factory/auto_promptor/datasets_pool/user_search_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11660"/>
+    <workbookView windowWidth="28800" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>questions</t>
   </si>
@@ -34,98 +34,69 @@
     <t>llm_contents</t>
   </si>
   <si>
-    <t>在金融领域有丰富经验的人员有哪些？</t>
-  </si>
-  <si>
-    <t>曹洋**秦明**黄敏**贾丹**孟洋**刘静**石磊</t>
-  </si>
-  <si>
-    <t>根据提供的人员信息，以下人员在金融领域有丰富经验：&lt;em object_id="d0c4bfb4b1459e8ee514e047bba7d183" type="person" class="answer-em-person"&gt;刘静&lt;/em&gt;，邮箱是RileyBarnes.Lin@aishu.cn，英文名是RileyBarnes，职位是销售代表，属于专业领域金融领域。&lt;em object_id="706990c4c3a10215d306a1dffd57d3d2" type="person" class="answer-em-person"&gt;石磊&lt;/em&gt;，邮箱是LaylaSimmons.Zheng@aishu.cn，英文名是LaylaSimmons，职位是销售代表，属于专业领域金融领域。&lt;em object_id="39bdaab4bd99f6e7e39206ba13af9e2a" type="person" class="answer-em-person"&gt;秦明&lt;/em&gt;，邮箱是LilyWatson.Hu@aishu.cn，英文名是LilyWatson，职位是中级测试工程师，属于专业领域金融领域。&lt;em object_id="6463eb1440e14951a2a6de5841290892" type="person" class="answer-em-person"&gt;黄敏&lt;/em&gt;，邮箱是AnthonyPrice.Guo@aishu.cn，英文名是AnthonyPrice，职位是销售代表，属于专业领域金融领域。&lt;em object_id="7e5f87f6e0662ec166fb1ccc79677627" type="person" class="answer-em-person"&gt;贾丹&lt;/em&gt;，邮箱是ZoeyPerry.He@aishu.cn，英文名是ZoeyPerry，职位是销售代表，属于专业领域金融领域。&lt;em object_id="ab137dfdd9c10d83fc5086a11e3c15bf" type="person" class="answer-em-person"&gt;曹洋&lt;/em&gt;，邮箱是JacksonBrooks.Zhu@aishu.cn，英文名是JacksonBrooks，职位是前端开发工程师，属于专业领域金融领域。&lt;em object_id="eadafc8d534a8463e59415d507770db9" type="person" class="answer-em-person"&gt;孟洋&lt;/em&gt;，邮箱是AndrewButler.Gao@aishu.cn，英文名是AndrewButler，职位是前端开发工程师，属于专业领域金融领域。</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第1个参考信息--《刘静》:人员 刘静(id是:d0c4bfb4b1459e8ee514e047bba7d183)：邮箱是RileyBarnes.Lin@aishu.cn；英文名是RileyBarnes；职位是销售代表。属于 专业领域 金融领域。
----
-第2个参考信息--《石磊》:人员 石磊(id是:706990c4c3a10215d306a1dffd57d3d2)：邮箱是LaylaSimmons.Zheng@aishu.cn；英文名是LaylaSimmons；职位是销售代表。属于 专业领域 金融领域。
----
-第3个参考信息--《秦明》:人员 秦明(id是:39bdaab4bd99f6e7e39206ba13af9e2a)：邮箱是LilyWatson.Hu@aishu.cn；英文名是LilyWatson；职位是中级测试工程师。属于 专业领域 金融领域。
----
-第4个参考信息--《黄敏》:人员 黄敏(id是:6463eb1440e14951a2a6de5841290892)：邮箱是AnthonyPrice.Guo@aishu.cn；英文名是AnthonyPrice；职位是销售代表。属于 专业领域 金融领域。
----
-第5个参考信息--《贾丹》:人员 贾丹(id是:7e5f87f6e0662ec166fb1ccc79677627)：邮箱是ZoeyPerry.He@aishu.cn；英文名是ZoeyPerry；职位是销售代表。属于 专业领域 金融领域。
----
-第6个参考信息--《曹洋》:人员 曹洋(id是:ab137dfdd9c10d83fc5086a11e3c15bf)：邮箱是JacksonBrooks.Zhu@aishu.cn；英文名是JacksonBrooks；职位是前端开发工程师。属于 专业领域 金融领域。
----
-第7个参考信息--《孟洋》:人员 孟洋(id是:eadafc8d534a8463e59415d507770db9)：邮箱是AndrewButler.Gao@aishu.cn；英文名是AndrewButler；职位是前端开发工程师。属于 专业领域 金融领域。
+    <t>AF产业链开发都有谁</t>
+  </si>
+  <si>
+    <t>李磊**田春华**郭春梅**韩明明**黄建华</t>
+  </si>
+  <si>
+    <t>根据提供的人员信息，以下是AF(AnyFabric)产业链开发的相关人员：1. &lt;em object_id="194a0411970106e9571efa1fe6bae14a" type="person" class="answer-em-person"&gt;郭春梅&lt;/em&gt;，高级前端开发工程师，属于产业链后端开发组。2. &lt;em object_id="30d7066873fda9400b0968f7ae7fa215" type="person" class="answer-em-person"&gt;崔浩&lt;/em&gt;，中级后端开发工程师，属于产业链数据组。3. &lt;em object_id="9b55652d219daf4359c8497cdcd8bb4e" type="person" class="answer-em-person"&gt;程小霞&lt;/em&gt;，高级后端开发工程师，属于产业链数据组。4. &lt;em object_id="9cfcc0bf14c96445f15d263fda4d2cf8" type="person" class="answer-em-person"&gt;郑明&lt;/em&gt;，高级后端开发工程师，属于产业链数据组。5. &lt;em object_id="c528f6c4980dfd504542289fd929dbb4" type="person" class="answer-em-person"&gt;黄建华&lt;/em&gt;，后端开发工程师，属于产业链后端开发组。6. &lt;em object_id="5d8aad752562daaa092a0fce7b85cb78" type="person" class="answer-em-person"&gt;韩明明&lt;/em&gt;，高级后端开发工程师，属于产业链后端开发组。7. &lt;em object_id="f574e06d4716725eb8be805be401d6b5" type="person" class="answer-em-person"&gt;魏春华&lt;/em&gt;，高级测试工程师，属于产业链测试组。8. &lt;em object_id="e93c7cc4c947a355d4be0eb3e97c4722" type="person" class="answer-em-person"&gt;田春华&lt;/em&gt;，高级前端开发工程师，属于产业链前端开发组。9. &lt;em object_id="f8e182f62ca6cf6a40aa7c8a37654eef" type="person" class="answer-em-person"&gt;李磊&lt;/em&gt;，大数据架构师，属于产业链前端开发组。以上人员均属于AF(AnyFabric)产业链开发的不同岗位，涵盖了前端、后端、测试以及架构设计等多个方面。</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第1个参考信息--《郭春梅》:人员 郭春梅(id是:194a0411970106e9571efa1fe6bae14a)：邮箱是Caleb.Jiang@aishu.cn；英文名是Caleb；职位是高级前端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第2个参考信息--《崔浩》:人员 崔浩(id是:30d7066873fda9400b0968f7ae7fa215)：邮箱是Hunter.Yan@aishu.cn；英文名是Hunter；职位是中级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第3个参考信息--《程小霞》:人员 程小霞(id是:9b55652d219daf4359c8497cdcd8bb4e)：邮箱是Sarah.Hu@aishu.cn；英文名是Sarah；职位是高级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第4个参考信息--《郑明》:人员 郑明(id是:9cfcc0bf14c96445f15d263fda4d2cf8)：邮箱是Olivia.Yan@aishu.cn；英文名是Olivia；职位是高级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第5个参考信息--《黄建华》:人员 黄建华(id是:c528f6c4980dfd504542289fd929dbb4)：邮箱是Chloe.Zhao@aishu.cn；英文名是Chloe；职位是后端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第6个参考信息--《韩明明》:人员 韩明明(id是:5d8aad752562daaa092a0fce7b85cb78)：邮箱是Antonio.Sun@aishu.cn；英文名是Antonio；职位是高级后端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第7个参考信息--《魏春华》:人员 魏春华(id是:f574e06d4716725eb8be805be401d6b5)：邮箱是Camila.Han@aishu.cn；英文名是Camila；职位是高级测试工程师。属于 组织 产业链测试组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第8个参考信息--《田春华》:人员 田春华(id是:e93c7cc4c947a355d4be0eb3e97c4722)：邮箱是Ryder.Luo@aishu.cn；英文名是Ryder；职位是高级前端开发工程师。属于 组织 产业链前端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第9个参考信息--《李磊》:人员 李磊(id是:f8e182f62ca6cf6a40aa7c8a37654eef)：邮箱是ThomasTaylor.Gao@aishu.cn；英文名是ThomasTaylor；职位是大数据架构师。属于 组织 产业链前端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第10个参考信息--《朱莉》:人员 朱莉(id是:7ed1d44beb60f7bb8a8fc61aa5463fe5)：邮箱是SkylarPhillips.Zhang@aishu.cn；英文名是SkylarPhillips；职位是中级测试工程师。属于 组织 产业链测试组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第11个参考信息--《侯宇》:人员 侯宇(id是:ab5c0bea97887759d9f779b1b1aded39)：邮箱是Julian.Liu@aishu.cn；英文名是Julian；职位是开发经理。工作地点 地区 石家庄市【隶属于是河北省。】。属于 组织 业务梳理开发组【隶属于是数据智能产品BG/AnyFabric研发线/数据智能运营研发部。组织 数据智能运营研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第12个参考信息--《齐玉梅》:人员 齐玉梅(id是:7f7fd12b7ffc939dbd4e1932942819e1)：邮箱是Jose.Ji@aishu.cn；英文名是Jose；职位是资深算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第13个参考信息--《张天宝》:人员 张天宝(id是:0f5f77e48b16f2b3f5a8256c40cbce89)：邮箱是Julia.Wang@aishu.cn；英文名是Julia；职位是研究员。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第14个参考信息--《贾琳》:人员 贾琳(id是:2a7883b097320fe619475e1e078384ef)：邮箱是Scarlett.Mei@aishu.cn；英文名是Scarlett；职位是算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第15个参考信息--《张丽丽》:人员 张丽丽(id是:3a207bb41dda255493a89ced8b4f9951)：邮箱是Amelia.Su@aishu.cn；英文名是Amelia；职位是高级算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第16个参考信息--《韩大娟》:人员 韩大娟(id是:5502926bb952dc31bf0dc28f36290072)：邮箱是Lillian.He@aishu.cn；英文名是Lillian；职位是算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第17个参考信息--《姜晨曦》:人员 姜晨曦(id是:c3686c020d95a822f7c21f89583f9d58)：邮箱是Lydia.Cheng@aishu.cn；英文名是Lydia；职位是产品设计总监。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第18个参考信息--《谢莉》:人员 谢莉(id是:7fd21e9ab76a74341b454e775473d7e3)：邮箱是Harper.Mei@aishu.cn；英文名是Harper；职位是产品运营工程师。属于 组织 AnyFabric产品运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
+---
+第19个参考信息--《熊峰》:人员 熊峰(id是:e3c9c749542ca0293e93889c453a2966)：邮箱是HenryRivera.Li@aishu.cn；英文名是HenryRivera；职位是产品运营总监。属于 组织 AnyFabric产品运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
+---
+第20个参考信息--《齐丽丽》:人员 齐丽丽(id是:5c00d7b57bdacaa463ebbee5f592f053)：邮箱是Kayla.Ma@aishu.cn；英文名是Kayla；职位是高级测试工程师。属于 组织 AnyFabric认知助手测试组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第21个参考信息--《高文静》:人员 高文静(id是:7015ec20a7ae264398d445972ee4d8ff)：邮箱是Isaac.Yang@aishu.cn；英文名是Isaac；职位是高级产品设计师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第22个参考信息--《唐雨》:人员 唐雨(id是:7da6c2181ba51bb23d2ae9da1b95a113)：邮箱是Paisley.Ma@aishu.cn；英文名是Paisley；职位是高级产品设计师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
+---
+第23个参考信息--《魏玉梅》:人员 魏玉梅(id是:fb7a56d27419e836e67da88ac0311dcf)：邮箱是Carter.Nie@aishu.cn；英文名是Carter；职位是产品运营工程师。属于 组织 AnyFabric特性运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
+---
+第24个参考信息--《何梅》:人员 何梅(id是:dc3158c684ebae2e096f56f479b1e7b6)：邮箱是Stella.Cao@aishu.cn；英文名是Stella；职位是产品文档工程师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
 ---
 </t>
   </si>
   <si>
-    <t>AF产业链开发都有谁</t>
-  </si>
-  <si>
-    <t>李磊**田春华**郭春梅**韩明明**黄建华</t>
-  </si>
-  <si>
-    <t>根据提供的人员信息，以下是AF(AnyFabric)产业链开发的相关人员：1. &lt;em object_id="194a0411970106e9571efa1fe6bae14a" type="person" class="answer-em-person"&gt;郭春梅&lt;/em&gt;，高级前端开发工程师，属于产业链后端开发组。2. &lt;em object_id="30d7066873fda9400b0968f7ae7fa215" type="person" class="answer-em-person"&gt;崔浩&lt;/em&gt;，中级后端开发工程师，属于产业链数据组。3. &lt;em object_id="9b55652d219daf4359c8497cdcd8bb4e" type="person" class="answer-em-person"&gt;程小霞&lt;/em&gt;，高级后端开发工程师，属于产业链数据组。4. &lt;em object_id="9cfcc0bf14c96445f15d263fda4d2cf8" type="person" class="answer-em-person"&gt;郑明&lt;/em&gt;，高级后端开发工程师，属于产业链数据组。5. &lt;em object_id="c528f6c4980dfd504542289fd929dbb4" type="person" class="answer-em-person"&gt;黄建华&lt;/em&gt;，后端开发工程师，属于产业链后端开发组。6. &lt;em object_id="5d8aad752562daaa092a0fce7b85cb78" type="person" class="answer-em-person"&gt;韩明明&lt;/em&gt;，高级后端开发工程师，属于产业链后端开发组。7. &lt;em object_id="f574e06d4716725eb8be805be401d6b5" type="person" class="answer-em-person"&gt;魏春华&lt;/em&gt;，高级测试工程师，属于产业链测试组。8. &lt;em object_id="e93c7cc4c947a355d4be0eb3e97c4722" type="person" class="answer-em-person"&gt;田春华&lt;/em&gt;，高级前端开发工程师，属于产业链前端开发组。9. &lt;em object_id="f8e182f62ca6cf6a40aa7c8a37654eef" type="person" class="answer-em-person"&gt;李磊&lt;/em&gt;，大数据架构师，属于产业链前端开发组。以上人员均属于AF(AnyFabric)产业链开发的不同岗位，涵盖了前端、后端、测试以及架构设计等多个方面。</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第1个参考信息--《郭春梅》:人员 郭春梅(id是:194a0411970106e9571efa1fe6bae14a)：邮箱是Caleb.Jiang@aishu.cn；英文名是Caleb；职位是高级前端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第2个参考信息--《崔浩》:人员 崔浩(id是:30d7066873fda9400b0968f7ae7fa215)：邮箱是Hunter.Yan@aishu.cn；英文名是Hunter；职位是中级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第3个参考信息--《程小霞》:人员 程小霞(id是:9b55652d219daf4359c8497cdcd8bb4e)：邮箱是Sarah.Hu@aishu.cn；英文名是Sarah；职位是高级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第4个参考信息--《郑明》:人员 郑明(id是:9cfcc0bf14c96445f15d263fda4d2cf8)：邮箱是Olivia.Yan@aishu.cn；英文名是Olivia；职位是高级后端开发工程师。属于 组织 产业链数据组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第5个参考信息--《黄建华》:人员 黄建华(id是:c528f6c4980dfd504542289fd929dbb4)：邮箱是Chloe.Zhao@aishu.cn；英文名是Chloe；职位是后端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第6个参考信息--《韩明明》:人员 韩明明(id是:5d8aad752562daaa092a0fce7b85cb78)：邮箱是Antonio.Sun@aishu.cn；英文名是Antonio；职位是高级后端开发工程师。属于 组织 产业链后端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第7个参考信息--《魏春华》:人员 魏春华(id是:f574e06d4716725eb8be805be401d6b5)：邮箱是Camila.Han@aishu.cn；英文名是Camila；职位是高级测试工程师。属于 组织 产业链测试组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第8个参考信息--《田春华》:人员 田春华(id是:e93c7cc4c947a355d4be0eb3e97c4722)：邮箱是Ryder.Luo@aishu.cn；英文名是Ryder；职位是高级前端开发工程师。属于 组织 产业链前端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第9个参考信息--《李磊》:人员 李磊(id是:f8e182f62ca6cf6a40aa7c8a37654eef)：邮箱是ThomasTaylor.Gao@aishu.cn；英文名是ThomasTaylor；职位是大数据架构师。属于 组织 产业链前端开发组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第10个参考信息--《朱莉》:人员 朱莉(id是:7ed1d44beb60f7bb8a8fc61aa5463fe5)：邮箱是SkylarPhillips.Zhang@aishu.cn；英文名是SkylarPhillips；职位是中级测试工程师。属于 组织 产业链测试组【隶属于是数据智能产品BG/AnyFabric研发线/产业链研发部。组织 产业链研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第11个参考信息--《侯宇》:人员 侯宇(id是:ab5c0bea97887759d9f779b1b1aded39)：邮箱是Julian.Liu@aishu.cn；英文名是Julian；职位是开发经理。工作地点 地区 石家庄市【隶属于是河北省。】。属于 组织 业务梳理开发组【隶属于是数据智能产品BG/AnyFabric研发线/数据智能运营研发部。组织 数据智能运营研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第12个参考信息--《齐玉梅》:人员 齐玉梅(id是:7f7fd12b7ffc939dbd4e1932942819e1)：邮箱是Jose.Ji@aishu.cn；英文名是Jose；职位是资深算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第13个参考信息--《张天宝》:人员 张天宝(id是:0f5f77e48b16f2b3f5a8256c40cbce89)：邮箱是Julia.Wang@aishu.cn；英文名是Julia；职位是研究员。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第14个参考信息--《贾琳》:人员 贾琳(id是:2a7883b097320fe619475e1e078384ef)：邮箱是Scarlett.Mei@aishu.cn；英文名是Scarlett；职位是算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第15个参考信息--《张丽丽》:人员 张丽丽(id是:3a207bb41dda255493a89ced8b4f9951)：邮箱是Amelia.Su@aishu.cn；英文名是Amelia；职位是高级算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第16个参考信息--《韩大娟》:人员 韩大娟(id是:5502926bb952dc31bf0dc28f36290072)：邮箱是Lillian.He@aishu.cn；英文名是Lillian；职位是算法工程师。属于 组织 AnyFabric认知助手算法组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第17个参考信息--《姜晨曦》:人员 姜晨曦(id是:c3686c020d95a822f7c21f89583f9d58)：邮箱是Lydia.Cheng@aishu.cn；英文名是Lydia；职位是产品设计总监。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第18个参考信息--《谢莉》:人员 谢莉(id是:7fd21e9ab76a74341b454e775473d7e3)：邮箱是Harper.Mei@aishu.cn；英文名是Harper；职位是产品运营工程师。属于 组织 AnyFabric产品运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
----
-第19个参考信息--《熊峰》:人员 熊峰(id是:e3c9c749542ca0293e93889c453a2966)：邮箱是HenryRivera.Li@aishu.cn；英文名是HenryRivera；职位是产品运营总监。属于 组织 AnyFabric产品运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
----
-第20个参考信息--《齐丽丽》:人员 齐丽丽(id是:5c00d7b57bdacaa463ebbee5f592f053)：邮箱是Kayla.Ma@aishu.cn；英文名是Kayla；职位是高级测试工程师。属于 组织 AnyFabric认知助手测试组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric认知助手研发部。组织 AnyFabric认知助手研发部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第21个参考信息--《高文静》:人员 高文静(id是:7015ec20a7ae264398d445972ee4d8ff)：邮箱是Isaac.Yang@aishu.cn；英文名是Isaac；职位是高级产品设计师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第22个参考信息--《唐雨》:人员 唐雨(id是:7da6c2181ba51bb23d2ae9da1b95a113)：邮箱是Paisley.Ma@aishu.cn；英文名是Paisley；职位是高级产品设计师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-第23个参考信息--《魏玉梅》:人员 魏玉梅(id是:fb7a56d27419e836e67da88ac0311dcf)：邮箱是Carter.Nie@aishu.cn；英文名是Carter；职位是产品运营工程师。属于 组织 AnyFabric特性运营组【隶属于是数据智能产品BG/数据智能产品线/AnyFabric产品运营部。组织 AnyFabric产品运营部（隶属于是数据智能产品BG/数据智能产品线。） 下层分类。】。
----
-第24个参考信息--《何梅》:人员 何梅(id是:dc3158c684ebae2e096f56f479b1e7b6)：邮箱是Stella.Cao@aishu.cn；英文名是Stella；职位是产品文档工程师。属于 组织 AnyFabric设计与文档组【隶属于是数据智能产品BG/AnyFabric研发线/AnyFabric设计与文档部。组织 AnyFabric设计与文档部（隶属于是数据智能产品BG/AnyFabric研发线。） 下层分类。】。
----
-</t>
-  </si>
-  <si>
     <t>as的管理测试都有谁</t>
   </si>
   <si>
@@ -187,25 +158,6 @@
 第24个参考信息--《李志勇》:人员 李志勇(id是:cf4bc70d51289ce1cf9983a8a2a02362)：邮箱是Lucyu.Xu@aishu.cn；英文名是Lucyu；职位是后端开发工程师。属于 组织 移动客户端开发组【隶属于是数据智能产品BG/AnyShare研发线/AnyShare客户端研发部。组织 AnyShare客户端研发部（隶属于是数据智能产品BG/AnyShare研发线。） 下层分类。】。
 ---
 第25个参考信息--《张磊》:人员 张磊(id是:05b6c4c5f01168bed2216a8cd5af70b1)：邮箱是LiamDavis.Yan@aishu.cn；英文名是LiamDavis；职位是高级移动终端开发工程师。属于 组织 移动客户端开发组【隶属于是数据智能产品BG/AnyShare研发线/AnyShare客户端研发部。组织 AnyShare客户端研发部（隶属于是数据智能产品BG/AnyShare研发线。） 下层分类。】。
----
-</t>
-  </si>
-  <si>
-    <t>我想联系税务组专员该找谁</t>
-  </si>
-  <si>
-    <t>潘雨萌</t>
-  </si>
-  <si>
-    <t>&lt;em object_id="dee361aeaf95b8bf4455e2cd83e9f6e5" type="person" class="answer-em-person"&gt;潘雨萌&lt;/em&gt;，她是高级税务专员，属于税务组，可以联系她。</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第1个参考信息--《潘雨萌》:人员 潘雨萌(id是:dee361aeaf95b8bf4455e2cd83e9f6e5)：邮箱是Elise.Chen@aishu.cn；英文名是Elise；职位是高级税务专员。工作地点 地区 哈尔滨市【隶属于是黑龙江省。】。属于 组织 税务组【隶属于是平台/财务管理线/财务部。组织 财务部（隶属于是平台/财务管理线。） 下层分类。】。
----
-第2个参考信息--《潘萍》:人员 潘萍(id是:7ff659671e1d9e35bacf8821e6ffdb6b)：邮箱是Mia.He@aishu.cn；英文名是Mia；职位是税务助理。属于 组织 税务组【隶属于是平台/财务管理线/财务部。组织 财务部（隶属于是平台/财务管理线。） 下层分类。】。工作地点 地区 大连市【隶属于是辽宁省。】。
 ---
 </t>
   </si>
@@ -220,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +183,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -705,148 +650,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,13 +1146,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.671875" customWidth="1"/>
     <col min="2" max="2" width="14.703125" customWidth="1"/>
@@ -1248,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1268,50 +1213,10 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
